--- a/legendre_out/DATA/p2/p2SplinePoints.xlsx
+++ b/legendre_out/DATA/p2/p2SplinePoints.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000110841523006696</v>
+        <v>0.0001088480769564693</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001106857243093969</v>
+        <v>0.0001117504433755473</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001116623489071069</v>
+        <v>0.0001150753374371733</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001136886013792895</v>
+        <v>0.0001188015673235753</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001166816863054113</v>
+        <v>0.0001229079412169939</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001205588082649385</v>
+        <v>0.000127373267299666</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001252371718373438</v>
+        <v>0.0001321763537538346</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000130633981602081</v>
+        <v>0.0001372960087617238</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001366664421386217</v>
+        <v>0.0001427110405055763</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001432517580264411</v>
+        <v>0.0001484002571676365</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000150307133844988</v>
+        <v>0.0001543424669301262</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0001577497741737366</v>
+        <v>0.0001605164779752892</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001654968835921636</v>
+        <v>0.0001669010984853707</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001734656666797145</v>
+        <v>0.0001734751366425907</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001815733280158654</v>
+        <v>0.0001802174006291939</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0001897370721800826</v>
+        <v>0.0001871066986274172</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001978741037518426</v>
+        <v>0.0001941218388195065</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0002059016273105903</v>
+        <v>0.00020124162938768</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002137390691694285</v>
+        <v>0.0002084448110070237</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002213505341256277</v>
+        <v>0.0002157087668012341</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002287415048604364</v>
+        <v>0.0002230096226310035</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0002359190244496689</v>
+        <v>0.000230323456944617</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0002428901359691295</v>
+        <v>0.0002376263481903501</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002496618824946312</v>
+        <v>0.0002448943748164877</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0002562413071019603</v>
+        <v>0.0002521036152712863</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002626354528669301</v>
+        <v>0.0002592301480030308</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000268851362865353</v>
+        <v>0.000266250051460006</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002748960801730168</v>
+        <v>0.000273139404090469</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0002807766478657339</v>
+        <v>0.0002798742843427042</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0002865001090193087</v>
+        <v>0.0002864307706649876</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0002920735067095526</v>
+        <v>0.0002927849415056025</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002975038840122551</v>
+        <v>0.0002989128753128078</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0003027982840032279</v>
+        <v>0.0003047906505348875</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000307963749758282</v>
+        <v>0.0003103943456201243</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0003130038149636805</v>
+        <v>0.0003157013258922211</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0003178985258760159</v>
+        <v>0.0003206975693969265</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0003226182890058213</v>
+        <v>0.0003253725890262552</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0003271334814726828</v>
+        <v>0.0003297159084497085</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0003314144803962054</v>
+        <v>0.0003337170513368068</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0003354316628959881</v>
+        <v>0.0003373655413570636</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0003391554060916341</v>
+        <v>0.000340650902179997</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0003425560871027323</v>
+        <v>0.0003435626574751121</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0003456040830488865</v>
+        <v>0.0003460903309119271</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0003482697710496989</v>
+        <v>0.0003482234461599584</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000350523528224761</v>
+        <v>0.0003499515268887142</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0003523357316936753</v>
+        <v>0.0003512640967677113</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0003536767585760407</v>
+        <v>0.0003521506794664636</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0003545169859914564</v>
+        <v>0.0003526007986544851</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0003548267910595191</v>
+        <v>0.0003526039780012883</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0003545808596372279</v>
+        <v>0.000352152863350347</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0003538092706326449</v>
+        <v>0.000351280239157801</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0003525805316200222</v>
+        <v>0.0003500467358517657</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0003509639231875716</v>
+        <v>0.000348513543997545</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0003490287259235031</v>
+        <v>0.0003467418541604405</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0003468442204160341</v>
+        <v>0.0003447928569057612</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0003444796872533748</v>
+        <v>0.0003427277427988094</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0003420044070237377</v>
+        <v>0.0003406077024048893</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0003394876603153321</v>
+        <v>0.0003384939262893025</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0003369987277163771</v>
+        <v>0.000336447605017359</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0003346068898150818</v>
+        <v>0.0003345299291543604</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0003323814271996559</v>
+        <v>0.0003328020892656087</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0003303896226862946</v>
+        <v>0.0003313233212921737</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0003286496268486614</v>
+        <v>0.0003301047900884088</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0003271286215056045</v>
+        <v>0.000329107792574569</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0003257914232464193</v>
+        <v>0.000328291311525471</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0003246028486604063</v>
+        <v>0.0003276143297159348</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0003235277143368605</v>
+        <v>0.0003270358299207769</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0003225308368650777</v>
+        <v>0.0003265147949148145</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0003215770328343573</v>
+        <v>0.0003260102074728666</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0003206311188339951</v>
+        <v>0.0003254810503697505</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0003196579114532868</v>
+        <v>0.000324886306380283</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0003186222272815317</v>
+        <v>0.0003241849582792836</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0003174888829080256</v>
+        <v>0.0003233359888415691</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0003162226949220655</v>
+        <v>0.0003222983808419576</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0003147884799129462</v>
+        <v>0.0003210311170552646</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0003131510544699688</v>
+        <v>0.0003194931802563116</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0003112752351824281</v>
+        <v>0.0003176435532199147</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0003091258386396183</v>
+        <v>0.0003154412187208887</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0003066676814308418</v>
+        <v>0.0003128451595340571</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0003038655801453931</v>
+        <v>0.0003098143584342348</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0003006843513725691</v>
+        <v>0.00030630779819624</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0002970888117016618</v>
+        <v>0.0003022844615948846</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0002930437777219776</v>
+        <v>0.0002977033314049969</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0002885140660228089</v>
+        <v>0.0002925233904013898</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0002834644931934458</v>
+        <v>0.0002867036213588732</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0002778598758231986</v>
+        <v>0.0002802030070522799</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0002716650305013578</v>
+        <v>0.0002729805302564206</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0002648749538949385</v>
+        <v>0.0002650372331195156</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0002576415230231058</v>
+        <v>0.0002565927884166615</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0002501674299306299</v>
+        <v>0.0002479376854449052</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0002426553927329384</v>
+        <v>0.0002393624498337283</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0002353081295454585</v>
+        <v>0.0002311576072126132</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0002283283584836465</v>
+        <v>0.0002236136832110739</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0002219187976629294</v>
+        <v>0.0002170212034585921</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0002162821651987371</v>
+        <v>0.0002116706935846541</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0002116211792065214</v>
+        <v>0.0002078526792187668</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0002081385578017113</v>
+        <v>0.000205857685990415</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0002060370190997434</v>
+        <v>0.0002059762395290909</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0002055192812160549</v>
+        <v>0.0002084988654642923</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0002067880622660843</v>
+        <v>0.0002137160894255053</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0001688679961889252</v>
+        <v>0.0001698915663095073</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0002193826892828208</v>
+        <v>0.0002213873800372464</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0002102969020003145</v>
+        <v>0.0002154599764442738</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0002911417336860494</v>
+        <v>0.000293303877725554</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0003679909158767166</v>
+        <v>0.0003663114019260011</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0003771569231666759</v>
+        <v>0.0003756791806499449</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0006238232931485194</v>
+        <v>0.0006261754663071487</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0016596023989779</v>
+        <v>0.001665456513081682</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>0.003362651511883562</v>
+        <v>0.003371668417166622</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>0.004209352297733916</v>
+        <v>0.004225122683909509</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>0.004476775998217884</v>
+        <v>0.00448632906468145</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>0.004519847953599135</v>
+        <v>0.004511997125857422</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>0.004391748595855517</v>
+        <v>0.004380281633008351</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>0.004192810734697912</v>
+        <v>0.00419141578567009</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>0.004043375477321138</v>
+        <v>0.004050564864941673</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>0.003956886481795429</v>
+        <v>0.003959482498049434</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>0.003932065678432464</v>
+        <v>0.003920387270423589</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>0.004026299002463726</v>
+        <v>0.004029911044028551</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>0.003958397902358347</v>
+        <v>0.003968408867815851</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>0.003878977108915398</v>
+        <v>0.003873723774601546</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>0.003945734188355999</v>
+        <v>0.00393592341343308</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>0.003946564545294223</v>
+        <v>0.003938877608759252</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>0.003899770434448023</v>
+        <v>0.003896151942588419</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>0.00385299877776485</v>
+        <v>0.00385227253476571</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>0.003799833243964929</v>
+        <v>0.003800718381432123</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>0.003728000686472586</v>
+        <v>0.003729438408725924</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>0.003625422055884518</v>
+        <v>0.003626582794918357</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>0.003481998723783468</v>
+        <v>0.003482355143082089</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>0.003288789858518299</v>
+        <v>0.003288159532658843</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>0.003037252027717281</v>
+        <v>0.003035799923088738</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>0.002733723118277105</v>
+        <v>0.002732037157178362</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>0.002403871491960867</v>
+        <v>0.002403060708541848</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>0.002074657309663216</v>
+        <v>0.002076358409399514</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>0.00176977345702614</v>
+        <v>0.001775814801572648</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>0.001491365525505282</v>
+        <v>0.001501551152513634</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>0.001232891273071926</v>
+        <v>0.001244114868039971</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0009936608580042323</v>
+        <v>0.001001642218934908</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0007851133320934514</v>
+        <v>0.0007879872379902326</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>0.000619658235854457</v>
+        <v>0.0006183332914665355</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0004992566815962871</v>
+        <v>0.0004957415289278189</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>0.0004162872989036179</v>
+        <v>0.0004121555490694704</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>0.0003627740638129972</v>
+        <v>0.0003591074832275757</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0003307409523610361</v>
+        <v>0.0003281294627382832</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>0.000312211940584271</v>
+        <v>0.0003107536189376673</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0002995203755620229</v>
+        <v>0.0002988445349926761</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0002892496405025314</v>
+        <v>0.0002888339063624503</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0002810711595675416</v>
+        <v>0.0002804718543664607</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0002747258717795431</v>
+        <v>0.0002735832013773866</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0002699547161610295</v>
+        <v>0.0002679927697679102</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0002664986317345001</v>
+        <v>0.0002635253819107206</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0002640985575224476</v>
+        <v>0.0002600058601784995</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0002624954325473671</v>
+        <v>0.0002572590269439311</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0002614301958317532</v>
+        <v>0.0002551097045796988</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0002606778372109175</v>
+        <v>0.0002534046428047026</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>0.000260182034262792</v>
+        <v>0.0002520992194212427</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0002599386061078592</v>
+        <v>0.0002511823892760741</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0002599433871313623</v>
+        <v>0.0002506431170458415</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0002601922117185444</v>
+        <v>0.0002504703674071882</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0002606809142546484</v>
+        <v>0.0002506531050367582</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>0.0002614053291249179</v>
+        <v>0.0002511802946111957</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0002623612907145955</v>
+        <v>0.000252040900807144</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>0.0002635446334089243</v>
+        <v>0.0002532238883012471</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>0.0002649511915931483</v>
+        <v>0.0002547182217701498</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0002665767996525094</v>
+        <v>0.0002565128658904945</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0002684172919722512</v>
+        <v>0.0002585967853389257</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0002704685029376169</v>
+        <v>0.0002609589447920872</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0002727262669338506</v>
+        <v>0.0002635883089266242</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0002751864183461933</v>
+        <v>0.0002664738424191781</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0002778447915598893</v>
+        <v>0.0002696045099463941</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0002806972209601829</v>
+        <v>0.0002729692761849175</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0002837395409323147</v>
+        <v>0.0002765571058113891</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0002869675858615291</v>
+        <v>0.0002803569635024544</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0002903771901330691</v>
+        <v>0.0002843578139347571</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0002939641881321796</v>
+        <v>0.000288548621784943</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0002977244142441004</v>
+        <v>0.0002929183517296524</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0003016537028540764</v>
+        <v>0.000297455968445531</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0003057478883473524</v>
+        <v>0.0003021504366092246</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0003100028051091677</v>
+        <v>0.0003069907208973729</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0003144142875247675</v>
+        <v>0.000311965785986622</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0003189781699793947</v>
+        <v>0.0003170645965536156</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0003236902868582948</v>
+        <v>0.000322276117275</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0003285464725467065</v>
+        <v>0.0003275893128274145</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0003335425614298751</v>
+        <v>0.0003329931478875052</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0003386743878930437</v>
+        <v>0.0003384765871319159</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0003439377863214578</v>
+        <v>0.0003440285952372931</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0003493285911003557</v>
+        <v>0.0003496381368802756</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0003548426366149831</v>
+        <v>0.0003552941767375099</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0003604757599132824</v>
+        <v>0.0003609856829965419</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0003662333119576457</v>
+        <v>0.0003667141684188462</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0003721515262107589</v>
+        <v>0.0003725218658932422</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0003782728913602679</v>
+        <v>0.0003784592561367541</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0003846398960938101</v>
+        <v>0.0003845768198663982</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0003912950290990315</v>
+        <v>0.0003909250377991987</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0003982807790635749</v>
+        <v>0.0003975543906521771</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>0.000405639634675087</v>
+        <v>0.0004045153591423581</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0004134140846212041</v>
+        <v>0.0004118584239867569</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0004216466175895727</v>
+        <v>0.0004196340659023983</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0004303797222678359</v>
+        <v>0.0004278927656063038</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0004396558873436407</v>
+        <v>0.0004366850038154988</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0004495176015046223</v>
+        <v>0.0004460612612469971</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0004600073534384274</v>
+        <v>0.0004560720186178239</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0004711676318327046</v>
+        <v>0.0004667677566450061</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0004830409253750868</v>
+        <v>0.0004781989560455552</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0004956697227532219</v>
+        <v>0.0004904160975364977</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>0.000509096512654753</v>
+        <v>0.0005034696618348548</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0005233637837673299</v>
+        <v>0.0005174101296576548</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0005385140247785828</v>
+        <v>0.0005322879817219066</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0005545897243761608</v>
+        <v>0.0005481536987446378</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0005716333712477153</v>
+        <v>0.0005650577614428777</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0005896874540808735</v>
+        <v>0.0005830506505336327</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0006087944615632864</v>
+        <v>0.0006021828467339318</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0006289968823825966</v>
+        <v>0.0006225048307607963</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0006503372052264575</v>
+        <v>0.000644067083331258</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0006728579187824928</v>
+        <v>0.0006669200851623188</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0006966367071359692</v>
+        <v>0.0006911466649611554</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0007219392987710965</v>
+        <v>0.000717002482508786</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0007490939669185412</v>
+        <v>0.0007448006822853388</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0007784290269292769</v>
+        <v>0.0007748544474836006</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>0.000810272794154265</v>
+        <v>0.0008074769612963456</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0008449535839444842</v>
+        <v>0.0008429814069163652</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0008827997116508658</v>
+        <v>0.0008816809675364031</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0009241394926243862</v>
+        <v>0.0009238888263492489</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0009693012422160288</v>
+        <v>0.0009699181665476992</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>0.001018613275776715</v>
+        <v>0.001020082171324487</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>0.001072403908657427</v>
+        <v>0.001074694023872408</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>0.001131001456209126</v>
+        <v>0.001134066907384236</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>0.001194734233782805</v>
+        <v>0.001198514005052777</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>0.001263930556729367</v>
+        <v>0.001268348500070747</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>0.001338918740399803</v>
+        <v>0.001343883575630949</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>0.001420027100145112</v>
+        <v>0.001425432414926196</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>0.001507583951316185</v>
+        <v>0.00151330820114919</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>0.00160215956913193</v>
+        <v>0.001608068424351909</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>0.001706894471444059</v>
+        <v>0.001712865748365931</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>0.001826479052324918</v>
+        <v>0.001832417746918138</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>0.001965625078372916</v>
+        <v>0.001971463573573264</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>0.002129044316186619</v>
+        <v>0.002134742381896195</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>0.002321448532364542</v>
+        <v>0.002326993325451769</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>0.002547549493505308</v>
+        <v>0.002552955557804935</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>0.002812058966207232</v>
+        <v>0.002817368232520328</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>0.003119688717068921</v>
+        <v>0.003124970503162879</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>0.003475150512689064</v>
+        <v>0.003480501523297598</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>0.003883156119665855</v>
+        <v>0.003888700446489003</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>0.004348417304597958</v>
+        <v>0.004354306426302083</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>0.004875645834084141</v>
+        <v>0.004882058616301926</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>0.005468432763241294</v>
+        <v>0.005475571674045113</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>0.006116640834704349</v>
+        <v>0.006124685585516426</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>0.006800931662591261</v>
+        <v>0.006810008136925353</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>0.007501797278283629</v>
+        <v>0.007511976959081684</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>0.008199729713162096</v>
+        <v>0.008211029682794248</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>0.008875220998608262</v>
+        <v>0.008887603938872833</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>0.009508763166003404</v>
+        <v>0.009522137358126903</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>0.01008084824672904</v>
+        <v>0.01009506757136617</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>0.01057196827216595</v>
+        <v>0.01058683220939958</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>0.01096261527369566</v>
+        <v>0.01097786890303688</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>0.01123328128269956</v>
+        <v>0.01124861528308763</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>0.01136445833055868</v>
+        <v>0.01137950898036105</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>0.01133663844865445</v>
+        <v>0.01135098762566675</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>0.01113211998339111</v>
+        <v>0.01114530245666414</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>0.01075889892994857</v>
+        <v>0.01077050609740092</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>0.01024409440255479</v>
+        <v>0.01025385148818005</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>0.009615280825916504</v>
+        <v>0.009623048717804433</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>0.008900032624740279</v>
+        <v>0.008905807875076764</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>0.008125924223733656</v>
+        <v>0.008129839048800743</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>0.007320530047603205</v>
+        <v>0.007322852327779094</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>0.006511424521055818</v>
+        <v>0.006512557800814857</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>0.005726182068798034</v>
+        <v>0.005726665556710726</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>0.004992377115537456</v>
+        <v>0.00499288568427045</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>0.004337584085980612</v>
+        <v>0.00433892827229671</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>0.003789377404834165</v>
+        <v>0.003792503409592323</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>0.003375331496805506</v>
+        <v>0.003381321184960828</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>0.003123020786601249</v>
+        <v>0.003133091687204989</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>0.003051407492600375</v>
+        <v>0.003066768437433364</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>0.003058940436339687</v>
+        <v>0.00307877146448074</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>0.002955390657690215</v>
+        <v>0.00297535656184109</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>0.002548793587614678</v>
+        <v>0.002561017370228604</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>0.001819502121483194</v>
+        <v>0.00181682156393964</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>0.001200154597540028</v>
+        <v>0.001187277821486295</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>0.0009417265739659648</v>
+        <v>0.0009295876835867458</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>0.0008773733150060318</v>
+        <v>0.0008709248674464405</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>0.0008262136517458743</v>
+        <v>0.0008241785083042302</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>0.0007477214906400016</v>
+        <v>0.0007476239137211298</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>0.0006513909754516102</v>
+        <v>0.0006513496286622604</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>0.0005467775904076548</v>
+        <v>0.0005455077373356995</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>0.0004433193864415023</v>
+        <v>0.0004401261149715871</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>0.000348138778554918</v>
+        <v>0.0003427833929482177</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>0.000266238318173976</v>
+        <v>0.0002588160268516213</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>0.0002025423736979048</v>
+        <v>0.0001934777782246047</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>0.0001619753135260161</v>
+        <v>0.0001520224086100593</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>0.0001494615060575291</v>
+        <v>0.0001397036795507822</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>0.0001699253196916963</v>
+        <v>0.0001617753525896039</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>0.0002282911228278056</v>
+        <v>0.0002234911892693929</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>0.0003294832838650587</v>
+        <v>0.0003301049511329266</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>0.000486471844838979</v>
+        <v>0.0004945380797377744</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>0.0008056495882851078</v>
+        <v>0.0008187456653623148</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>0.001399142950563281</v>
+        <v>0.001409480705328652</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>0.002109720625254227</v>
+        <v>0.002113486706537744</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>0.002700717659472405</v>
+        <v>0.002700872509914081</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>0.003094162030138115</v>
+        <v>0.003096360790472304</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>0.00341428125505615</v>
+        <v>0.003421676071774878</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>0.003798423076758666</v>
+        <v>0.003811325836798243</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>0.004383922703897059</v>
+        <v>0.00439980521749123</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>0.005241941342936627</v>
+        <v>0.005256400736889443</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>0.006222998020246445</v>
+        <v>0.006232975622529606</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>0.007131681676030483</v>
+        <v>0.007136133076452817</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>0.007772581250492921</v>
+        <v>0.007772476300700374</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>0.007971758847645134</v>
+        <v>0.007969952112749371</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>0.007844049129727724</v>
+        <v>0.007843537713051419</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>0.007711039948524605</v>
+        <v>0.007713716142155</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>0.007898812247020274</v>
+        <v>0.007905436424827982</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>0.008648013814404248</v>
+        <v>0.008658504061441587</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>0.009832499931627393</v>
+        <v>0.009847175517987887</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>0.01122771008575848</v>
+        <v>0.01124762510879774</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>0.01260908256038583</v>
+        <v>0.0126360259488015</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>0.01375205620461929</v>
+        <v>0.01378855171372016</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>0.01449350410960694</v>
+        <v>0.0145422963897696</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>0.01490075939466786</v>
+        <v>0.01496288606524822</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>0.01509518560831533</v>
+        <v>0.0151695252631103</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>0.01519814629906214</v>
+        <v>0.01528141850630974</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>0.01532712634392753</v>
+        <v>0.01541400945572256</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>0.01553871737222357</v>
+        <v>0.01562369807479474</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>0.01584112978958547</v>
+        <v>0.01591997261771655</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>0.01624123930923607</v>
+        <v>0.01631102718574793</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>0.01674592164439765</v>
+        <v>0.01680505588014827</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>0.01736205250829301</v>
+        <v>0.01741025280217747</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0180965076141448</v>
+        <v>0.01813481205309528</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>0.01895616267517607</v>
+        <v>0.01898692773416185</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0199477841992252</v>
+        <v>0.01997467955860093</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>0.02106391415211268</v>
+        <v>0.021091247631562</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>0.02226890731371307</v>
+        <v>0.02230028716925402</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>0.02352380024176446</v>
+        <v>0.02356197769009028</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>0.02478962949400654</v>
+        <v>0.0248364987124857</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0260274316281785</v>
+        <v>0.0260840297548547</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>0.02719824320202002</v>
+        <v>0.02726475033561218</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>0.02826310077326922</v>
+        <v>0.02833883997317147</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>0.02918304089966579</v>
+        <v>0.02926647818594751</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>0.02991915193254502</v>
+        <v>0.03000789795782636</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>0.03044323233459468</v>
+        <v>0.03053438810195678</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>0.03075084492562942</v>
+        <v>0.03084176889211221</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>0.03084074774514091</v>
+        <v>0.03092915896209647</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>0.03071169883262069</v>
+        <v>0.03079567694571325</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>0.03036245622756058</v>
+        <v>0.0304404414767665</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>0.0297917779694522</v>
+        <v>0.02986257118906</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>0.02899842209778683</v>
+        <v>0.02906118471639717</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>0.02798114665205684</v>
+        <v>0.02803540069258254</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>0.02674052773037067</v>
+        <v>0.02678614786815168</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>0.02530479244375985</v>
+        <v>0.02534188521773812</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>0.02372368491166769</v>
+        <v>0.02375249473093471</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>0.02204751626685755</v>
+        <v>0.02206842293375152</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>0.02032659764209065</v>
+        <v>0.02034011635219648</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>0.01861124017012816</v>
+        <v>0.01861802151227745</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>0.01695175498373355</v>
+        <v>0.01695258494000464</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>0.01539845321566796</v>
+        <v>0.01539425316138589</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>0.01400164599869333</v>
+        <v>0.01399347270242983</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>0.01279916043185285</v>
+        <v>0.01278817190816946</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0117773386547271</v>
+        <v>0.01176465333868731</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>0.01090925242649539</v>
+        <v>0.01089591287553388</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>0.01016797349275267</v>
+        <v>0.01015494638663813</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>0.009526573599093624</v>
+        <v>0.009514749739928741</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>0.008958124491113767</v>
+        <v>0.008948318803335241</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>0.008435697914407746</v>
+        <v>0.008428649444786282</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>0.007932365614570279</v>
+        <v>0.007928737532210597</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>0.007421296537775928</v>
+        <v>0.007421675770299486</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>0.006893889822207796</v>
+        <v>0.006898718820987728</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>0.006381109250628951</v>
+        <v>0.006390537902156321</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>0.00591910415176344</v>
+        <v>0.005932970368388676</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>0.005544023854334593</v>
+        <v>0.005561853574267494</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>0.005292017687065979</v>
+        <v>0.005313024874375715</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>0.005199234978681164</v>
+        <v>0.005222321623296271</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>0.005301825057903821</v>
+        <v>0.005325581175612199</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>0.005635937253457432</v>
+        <v>0.005658640885906355</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>0.006237011912538063</v>
+        <v>0.00625663458824214</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>0.007100773252564704</v>
+        <v>0.007115285904751162</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>0.008162955944313053</v>
+        <v>0.008170790986983806</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>0.009354313551056745</v>
+        <v>0.009354403246515219</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>0.01060559963606966</v>
+        <v>0.01059737609492078</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>0.01184756776262393</v>
+        <v>0.01183096294377414</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>0.01301097149399344</v>
+        <v>0.01298641720465069</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>0.01402656439345189</v>
+        <v>0.01399499228912562</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>0.01482510002427165</v>
+        <v>0.01478794160877284</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>0.01535033644758162</v>
+        <v>0.01530943157054049</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>0.01561409204973891</v>
+        <v>0.0155712100193177</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>0.01565037600361727</v>
+        <v>0.01560705944729812</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>0.01549320969441992</v>
+        <v>0.01545077447307623</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>0.01517661450735014</v>
+        <v>0.0151361497152466</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>0.01473461182761117</v>
+        <v>0.01469697979240374</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>0.01420122304040595</v>
+        <v>0.01416705932314188</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>0.01361046953093822</v>
+        <v>0.01358018292605601</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>0.01299637221533208</v>
+        <v>0.01297014475361263</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>0.01238666476813293</v>
+        <v>0.01236449127126081</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>0.01178703198379629</v>
+        <v>0.01176885877921081</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>0.01119832796717083</v>
+        <v>0.01118408327910572</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>0.01062140682310547</v>
+        <v>0.01061100077258888</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>0.0100571226564489</v>
+        <v>0.01005044726130341</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>0.009506329572050564</v>
+        <v>0.009503258746893152</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>0.008969881674759145</v>
+        <v>0.008970271231001213</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>0.008448633069423577</v>
+        <v>0.008452320715270944</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>0.00794343786089257</v>
+        <v>0.007950243201345474</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>0.007455150154015516</v>
+        <v>0.00746487469086861</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>0.006984624053641117</v>
+        <v>0.006997051185483468</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>0.006532713664618115</v>
+        <v>0.00654760868683321</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>0.006100273091795849</v>
+        <v>0.006117383196561592</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>0.005688156440023045</v>
+        <v>0.005707210716311757</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>0.005297217814148473</v>
+        <v>0.005317927247726893</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>0.004928311319021417</v>
+        <v>0.004950368792450699</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>0.004582291059490633</v>
+        <v>0.004605371352126349</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>0.004259837747537542</v>
+        <v>0.004283601316052763</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>0.003960473790040121</v>
+        <v>0.003984592023208072</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>0.003683247002389179</v>
+        <v>0.003707412568706528</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>0.00342720376617238</v>
+        <v>0.003451130645120756</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>0.003191390462977524</v>
+        <v>0.003214813945023519</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>0.00297485347439232</v>
+        <v>0.002997530160987486</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>0.002776639182004765</v>
+        <v>0.002798346985585618</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>0.002595793967402559</v>
+        <v>0.002616332111390574</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>0.002431364212173433</v>
+        <v>0.002450553230975047</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>0.002282396297905335</v>
+        <v>0.00230007803691195</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>0.00214793660618599</v>
+        <v>0.002163974221773967</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>0.002027031518603149</v>
+        <v>0.002041309478133811</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>0.001918727416744722</v>
+        <v>0.001931151498564354</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>0.001822070682198453</v>
+        <v>0.001832567975638301</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>0.001736107696552106</v>
+        <v>0.00174462660192838</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>0.001659884841393594</v>
+        <v>0.001666395070007465</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>0.001592448498310581</v>
+        <v>0.001596941072448178</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>0.001532845048890938</v>
+        <v>0.001535332301823356</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>0.001480120874722513</v>
+        <v>0.001480636450705809</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>0.001433322357393009</v>
+        <v>0.001431921211668199</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>0.001391495878490316</v>
+        <v>0.00138825427728338</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>0.001353687819602158</v>
+        <v>0.001348703340124035</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>0.001318944562316374</v>
+        <v>0.001312336092762967</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>0.001286312488220796</v>
+        <v>0.00127822022777297</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>0.001254837978903164</v>
+        <v>0.001245423437726744</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>0.00122356741595131</v>
+        <v>0.001213013415197084</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>0.001191602296851097</v>
+        <v>0.001180111197601038</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>0.001158686733524482</v>
+        <v>0.001146459787491548</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>0.001124980328076996</v>
+        <v>0.001112204326548814</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>0.001090649648008005</v>
+        <v>0.001077496698026022</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>0.001055861260816782</v>
+        <v>0.001042488785176262</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>0.001020781734002695</v>
+        <v>0.001007332471252722</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>0.0009855776350651089</v>
+        <v>0.0009721796395085884</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>0.0009504155315032965</v>
+        <v>0.0009371821731969513</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>0.0009154619908166249</v>
+        <v>0.0009024919555709978</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>0.0008808835805044601</v>
+        <v>0.0008682608698839131</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>0.0008468468680660752</v>
+        <v>0.0008346407993887901</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>0.0008135184210008666</v>
+        <v>0.0008017836273388439</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>0.0007810648068081093</v>
+        <v>0.0007698412369871699</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>0.0007496525929871693</v>
+        <v>0.0007389655115869526</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>0.0007194483470374085</v>
+        <v>0.0007093083343913731</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>0.0006906186364581074</v>
+        <v>0.0006810215886535322</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>0.0006633300287486296</v>
+        <v>0.0006542571576266127</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>0.0006377456855482304</v>
+        <v>0.0006291637732568017</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>0.000613930362756861</v>
+        <v>0.0006057991165707709</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>0.0005918377709552611</v>
+        <v>0.0005841181227747493</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>0.000571415675370987</v>
+        <v>0.0005640702260759568</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>0.0005526118412315391</v>
+        <v>0.0005456048606815596</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>0.0005353740337644886</v>
+        <v>0.0005286714607987932</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>0.0005196500181973425</v>
+        <v>0.0005132194606348298</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>0.0005053875597576542</v>
+        <v>0.0004991982943968878</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>0.0004925344236729726</v>
+        <v>0.00048655739629218</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>0.0004810383751708118</v>
+        <v>0.0004752462005278866</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>0.0004708471794787214</v>
+        <v>0.0004652141413112214</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>0.000461908601824247</v>
+        <v>0.0004564106528493945</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>0.0004541704074349094</v>
+        <v>0.0004487851693495925</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>0.0004475803615382553</v>
+        <v>0.0004422871250190262</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>0.0004420862293618265</v>
+        <v>0.0004368659540649024</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>0.0004376357761331507</v>
+        <v>0.0004324710906944137</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>0.0004341767670797708</v>
+        <v>0.0004290519691147679</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>0.0004316569674292263</v>
+        <v>0.0004265580235331694</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>0.0004300241424090501</v>
+        <v>0.0004249386881568158</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>0.0004292260572467831</v>
+        <v>0.0004241433971929129</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>0.0004292104771699611</v>
+        <v>0.0004241215848486613</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>0.0004299251674061228</v>
+        <v>0.0004248226853312647</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>0.0004313178931828044</v>
+        <v>0.0004261961328479241</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>0.0004333364197275458</v>
+        <v>0.0004281913616058441</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>0.0004359285122678837</v>
+        <v>0.0004307578058122264</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>0.0004390419360313523</v>
+        <v>0.0004338448996742701</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>0.0004426244562454953</v>
+        <v>0.0004374020773991836</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>0.0004466238381378473</v>
+        <v>0.0004413787731941663</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>0.0004509878469359419</v>
+        <v>0.0004457244212664168</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>0.0004556642478673244</v>
+        <v>0.0004503884558231454</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>0.0004606008061595286</v>
+        <v>0.0004553203110715506</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>0.0004657452870400874</v>
+        <v>0.0004604694212188298</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>0.0004710454557365478</v>
+        <v>0.0004657852204721954</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>0.0004764490774764377</v>
+        <v>0.0004712171430388398</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>0.0004819039174873043</v>
+        <v>0.000476714623125975</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>0.000487364669456278</v>
+        <v>0.0004822339707869613</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>0.0004928918790326799</v>
+        <v>0.0004878365442172053</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>0.0004986287073467722</v>
+        <v>0.0004936656897264359</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>0.0005047205070205813</v>
+        <v>0.0004998669284743646</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>0.0005113126306761321</v>
+        <v>0.000506585781620701</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>0.0005185504309354681</v>
+        <v>0.0005139677703251734</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>0.0005265792604206149</v>
+        <v>0.0005221584157474925</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>0.0005355444717535951</v>
+        <v>0.0005313032390473658</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>0.0005455914175564565</v>
+        <v>0.0005415477613845258</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>0.0005568654504512122</v>
+        <v>0.0005530375039186704</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>0.0005695119230599133</v>
+        <v>0.000565917987809536</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>0.0005836761880045817</v>
+        <v>0.0005803347342168292</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>0.0005995035979072342</v>
+        <v>0.0005964332643002513</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>0.0006171395053899302</v>
+        <v>0.0006143590992195473</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>0.0006367292630746876</v>
+        <v>0.0006342577601344197</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>0.0006584182235835173</v>
+        <v>0.0006562747682045636</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>0.0006823517395384898</v>
+        <v>0.0006805556445897357</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>0.0007086751635616178</v>
+        <v>0.0007072459104496326</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>0.0007375338482749054</v>
+        <v>0.0007364910869439433</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>0.0007690731463004361</v>
+        <v>0.000768436695232437</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>0.0008034384102602164</v>
+        <v>0.0008032282564748045</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>0.0008407749927762426</v>
+        <v>0.0008410112918307267</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>0.0008812513395998115</v>
+        <v>0.0008819541253552806</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>0.0009252842421261678</v>
+        <v>0.0009264703055452685</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>0.0009734416545582786</v>
+        <v>0.0009751226438945983</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>0.001026293673011098</v>
+        <v>0.001028476066889668</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>0.0010844103935994</v>
+        <v>0.001087095501016693</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>0.001148361912438156</v>
+        <v>0.001151545872762089</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>0.001218718325642186</v>
+        <v>0.001222392108612119</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>0.001296049729326285</v>
+        <v>0.001300199135053019</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>0.00138092621960546</v>
+        <v>0.001385531878571242</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>0.001473917892594514</v>
+        <v>0.001478955265653032</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>0.00157559484440822</v>
+        <v>0.001581034222784605</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>0.00168652717116163</v>
+        <v>0.001692333676452456</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>0.001807284968969523</v>
+        <v>0.001813418553142808</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>0.001938482860213086</v>
+        <v>0.001944897039839499</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>0.002081041531431077</v>
+        <v>0.002087674687056431</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>0.002236010333559128</v>
+        <v>0.002242782052101987</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>0.00240443906278427</v>
+        <v>0.002411250124878594</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>0.002587377515293121</v>
+        <v>0.00259410989528827</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>0.002785875487272248</v>
+        <v>0.002792392353232976</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>0.003000982774908761</v>
+        <v>0.003007128488615219</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>0.003233749174389238</v>
+        <v>0.003239349291336979</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>0.0034852244819002</v>
+        <v>0.003490085751300168</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>0.003755430500068875</v>
+        <v>0.003759348830788419</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>0.004039694467081864</v>
+        <v>0.004042491305910919</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>0.004332004270448466</v>
+        <v>0.004333536980752594</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>0.004626347696610687</v>
+        <v>0.004626509559114243</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>0.004916712532009479</v>
+        <v>0.004915432744795621</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>0.00519708656308684</v>
+        <v>0.005194330241597524</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>0.00546145757628398</v>
+        <v>0.005457225753319962</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>0.00570381335804216</v>
+        <v>0.005698142983762996</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>0.005918141694803295</v>
+        <v>0.00591110563672734</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>0.006098430373008626</v>
+        <v>0.006090137416013035</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>0.006238667179099518</v>
+        <v>0.006229262025420246</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>0.006332839899517701</v>
+        <v>0.006322503168749502</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>0.006374936320704497</v>
+        <v>0.006363884549800923</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>0.006358944229101427</v>
+        <v>0.006347429872374832</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>0.006278851411149929</v>
+        <v>0.006267162840271467</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>0.006128645653291472</v>
+        <v>0.006117107157291093</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>0.005902314741967757</v>
+        <v>0.005891286527234213</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>0.005595875867052754</v>
+        <v>0.005585742835877401</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>0.005218951487180663</v>
+        <v>0.005210048008295966</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>0.004786756485653143</v>
+        <v>0.004779335471278955</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>0.004314522938016319</v>
+        <v>0.004308755748796464</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>0.003817482919817933</v>
+        <v>0.003813459364820203</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>0.003310868506603992</v>
+        <v>0.003308596843320152</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>0.002809911773921855</v>
+        <v>0.00280931870826764</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>0.002329844797318856</v>
+        <v>0.002330775483633966</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>0.001885899652341037</v>
+        <v>0.001888117693389146</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>0.001493308414535761</v>
+        <v>0.001496495861504511</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>0.001167291405857961</v>
+        <v>0.001171048830381246</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>0.0009165587122747814</v>
+        <v>0.00092044509909197</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>0.0007325105180907026</v>
+        <v>0.000736149334628383</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>0.0006037018962774105</v>
+        <v>0.0006067985265883579</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>0.0005186879198062732</v>
+        <v>0.0005210296645694485</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>0.0004660236616490577</v>
+        <v>0.0004674797381696084</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>0.0004342641947772691</v>
+        <v>0.0004347857369865271</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>0.0004120023803710693</v>
+        <v>0.0004116221563827877</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>0.0003915852142729809</v>
+        <v>0.0003903895665209472</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>0.0003722475383490986</v>
+        <v>0.0003703249011473842</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>0.0003539620470350699</v>
+        <v>0.0003513974315809897</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>0.0003367014347665388</v>
+        <v>0.0003335764291406504</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>0.000320438395979103</v>
+        <v>0.0003168311651452057</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>0.0003051456251084074</v>
+        <v>0.0003011309109135435</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>0.0002907958165900932</v>
+        <v>0.0002864449377645479</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>0.0002773616648597633</v>
+        <v>0.0002727425170170638</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>0.0002648158643530598</v>
+        <v>0.000259992919989976</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>0.0002531311095056219</v>
+        <v>0.0002481654180021664</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>0.0002422800947530572</v>
+        <v>0.0002372292823724848</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>0.0002322355145310052</v>
+        <v>0.0002271537844198136</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>0.0002229700632751032</v>
+        <v>0.0002179081954630322</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>0.0002144564354209628</v>
+        <v>0.0002094617868209953</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>0.0002066673254042285</v>
+        <v>0.0002017838298125894</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>0.0001995754276605148</v>
+        <v>0.000194843595756672</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>0.0001931534366254582</v>
+        <v>0.0001886103559721218</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>0.0001873740467346921</v>
+        <v>0.0001830533817778148</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>0.0001822099524238351</v>
+        <v>0.0001781419444926123</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>0.0001776338481285214</v>
+        <v>0.0001738453154353909</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>0.0001736184282843831</v>
+        <v>0.0001701327659250251</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>0.0001701363873270419</v>
+        <v>0.0001669735672803795</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>0.0001671604196921304</v>
+        <v>0.0001643369908203291</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>0.0001646632198152794</v>
+        <v>0.0001621923078637469</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>0.0001626174821321133</v>
+        <v>0.0001605087897295003</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>0.0001609959010782645</v>
+        <v>0.0001592557077364639</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>0.0001597711710893591</v>
+        <v>0.0001584023332035066</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>0.0001589159866010272</v>
+        <v>0.0001579179374495012</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>0.0001584030420488983</v>
+        <v>0.0001577717917933189</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>0.0001582050318686</v>
+        <v>0.0001579331675538309</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>0.0001582946504957619</v>
+        <v>0.0001583713360499087</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>0.0001586445923660122</v>
+        <v>0.0001590555686004229</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>0.0001592275519149804</v>
+        <v>0.0001599551365242462</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>0.0001600162235782952</v>
+        <v>0.0001610393111402494</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>0.0001609833017915843</v>
+        <v>0.0001622773637673025</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>0.0001621014809904783</v>
+        <v>0.0001636385657242791</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>0.000163343455610604</v>
+        <v>0.0001650921883300483</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>0.0001646819200875925</v>
+        <v>0.000166607502903484</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>0.0001660895688570716</v>
+        <v>0.0001681537807634562</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>0.0001675391080285224</v>
+        <v>0.0001697003063109902</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>0.0001690154556868181</v>
+        <v>0.0001712300491416404</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>0.0001705388622504412</v>
+        <v>0.0001727655735801589</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>0.0001721359309646833</v>
+        <v>0.0001743365631656681</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>0.0001738332650748403</v>
+        <v>0.0001759727014372943</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>0.0001756574678262042</v>
+        <v>0.00017770367193416</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>0.0001776351424640662</v>
+        <v>0.0001795591581953869</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>0.0001797928922337229</v>
+        <v>0.0001815688437601023</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>0.000182157320380466</v>
+        <v>0.0001837624121674283</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>0.0001847550301495859</v>
+        <v>0.0001861695469564862</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>0.0001876126247863807</v>
+        <v>0.0001888199316664041</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>0.0001907567075361412</v>
+        <v>0.0001917432498363035</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>0.0001942138816441574</v>
+        <v>0.0001949691850053052</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>0.0001980107503557285</v>
+        <v>0.0001985274207125387</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>0.000202173916916141</v>
+        <v>0.0002024476404971212</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>0.0002067299845706954</v>
+        <v>0.0002067595278981835</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>0.0002117055565646812</v>
+        <v>0.0002114927664548459</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>0.0002171272361433867</v>
+        <v>0.0002166770397062272</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>0.0002230216265521146</v>
+        <v>0.0002223420311914604</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>0.0002294153310361536</v>
+        <v>0.0002285174244496649</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>0.0002363349528407901</v>
+        <v>0.0002352329030199578</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>0.0002438070952113301</v>
+        <v>0.0002425181504414753</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>0.0002518583613930603</v>
+        <v>0.0002504028502533349</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>0.0002605153546312662</v>
+        <v>0.0002589166859946527</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>0.0002698046781712564</v>
+        <v>0.0002680893412045675</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>0.0002797529352583071</v>
+        <v>0.0002779504994221864</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>0.0002903867291377298</v>
+        <v>0.0002885298441866512</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>0.0003017326630548084</v>
+        <v>0.0002998570590370765</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>0.0003138173402548254</v>
+        <v>0.0003119618275125752</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>0.0003266673639830954</v>
+        <v>0.0003248738331522924</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>0.000340309337484901</v>
+        <v>0.0003386227594953417</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>0.0003547698640055223</v>
+        <v>0.000353238290080833</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>0.0003700755467902781</v>
+        <v>0.0003687501084479163</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>0.0003862529890844491</v>
+        <v>0.0003851878981357025</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>0.0004033287941333126</v>
+        <v>0.0004025813426832993</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>0.0004213295651821926</v>
+        <v>0.0004209601256298617</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>0.0004402819054763498</v>
+        <v>0.0004403539305144802</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>0.0004602124182611113</v>
+        <v>0.0004607924408763136</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>0.0004811477049152154</v>
+        <v>0.0004823053382562386</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>0.000503060795720338</v>
+        <v>0.0005048649534548059</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>0.000525731052935455</v>
+        <v>0.0005282362852392819</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>0.0005488940886137577</v>
+        <v>0.0005521374954288604</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>0.0005722855148083541</v>
+        <v>0.0005762867458426498</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>0.0005956409435724367</v>
+        <v>0.0006004021982998448</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>0.0006186959869591338</v>
+        <v>0.0006242020146195749</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>0.0006411862570215754</v>
+        <v>0.0006474043566209709</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>0.0006628473658129518</v>
+        <v>0.0006697273861232255</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>0.0006834149253863922</v>
+        <v>0.0006908892649454689</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>0.0007026245477950299</v>
+        <v>0.0007106081549068351</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>0.0007202118450920491</v>
+        <v>0.0007286022178265108</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>0.0007359124293305813</v>
+        <v>0.0007445896155236284</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>0.0007494619125637658</v>
+        <v>0.0007582885098173285</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>0.0007605959068447761</v>
+        <v>0.0007694170625267866</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>0.000769050024226743</v>
+        <v>0.0007776934354711344</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>0.0007745598767628313</v>
+        <v>0.000782835790469538</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>0.0007768610765061816</v>
+        <v>0.0007845622893411397</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>0.0007757140705722546</v>
+        <v>0.0007826179136619049</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>0.0007713153258198698</v>
+        <v>0.0007772185092776992</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>0.0007642332906890948</v>
+        <v>0.0007689816305311693</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>0.0007550483396638906</v>
+        <v>0.0007585377108788936</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>0.0007443408472281929</v>
+        <v>0.0007465171837774201</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>0.0007326911878659605</v>
+        <v>0.0007335504826833245</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>0.0007206797360611564</v>
+        <v>0.0007202680410531863</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>0.0007088868662977109</v>
+        <v>0.0007073002923435488</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>0.0006978929530595961</v>
+        <v>0.0006952776700110013</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>0.0006882783708307433</v>
+        <v>0.0006848306075120891</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>0.0006806234940951159</v>
+        <v>0.0006765895383033913</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>0.0006755086973366685</v>
+        <v>0.0006711848958414788</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>0.0006735143550393437</v>
+        <v>0.0006692471135829084</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>0.0006752208416870994</v>
+        <v>0.0006714066249842541</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>0.0006812057173864459</v>
+        <v>0.0006782908952993066</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>0.0006915634228406867</v>
+        <v>0.0006900178645374608</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>0.0007053615362507752</v>
+        <v>0.0007056224850160422</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>0.0007215362756519708</v>
+        <v>0.0007240011691384642</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>0.000739023859079578</v>
+        <v>0.0007440503293081907</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>0.0007567605045688417</v>
+        <v>0.0007646663779286185</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>0.0007736824301550699</v>
+        <v>0.0007847457274032161</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>0.0007887258538735208</v>
+        <v>0.0008031847901353952</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>0.0008008269937594694</v>
+        <v>0.0008188799785285867</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>0.0008089589823895069</v>
+        <v>0.0008307601327618812</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>0.0008132571457310007</v>
+        <v>0.0008387750279958365</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>0.0008152252987914982</v>
+        <v>0.0008440765958857276</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>0.000816445775876619</v>
+        <v>0.0008478857437829336</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>0.0008185009112919776</v>
+        <v>0.0008514233790388202</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>0.0008229730393431859</v>
+        <v>0.0008559104090047533</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>0.0008314444943358685</v>
+        <v>0.0008625677410321118</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>0.000845332114186899</v>
+        <v>0.0008725064630865095</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>0.0008632559764703808</v>
+        <v>0.0008849818008680512</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>0.0008815065622986368</v>
+        <v>0.0008977031164212522</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>0.0008963032686224569</v>
+        <v>0.000908332602066769</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>0.0009038654923926441</v>
+        <v>0.0009145324501252655</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>0.0009014502854376348</v>
+        <v>0.0009145572692204831</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>0.0008909575987250127</v>
+        <v>0.0009093123847056193</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>0.0008755854328282256</v>
+        <v>0.0009004442023887403</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>0.0008585318488278136</v>
+        <v>0.0008895991626225253</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>0.0008424779863897568</v>
+        <v>0.0008781681572475165</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>0.0008278005213088442</v>
+        <v>0.0008664028288934827</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>0.0008142341936310929</v>
+        <v>0.0008542374688078292</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>0.0008015137162192053</v>
+        <v>0.0008416063547994514</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>0.0007893738019358497</v>
+        <v>0.0008284437646772094</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>0.0007775491636437292</v>
+        <v>0.0008146839762499979</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>0.0007657745142055456</v>
+        <v>0.000800261267326713</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>0.0007537845664839694</v>
+        <v>0.0007851099157162128</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>0.0007413140333417138</v>
+        <v>0.0007691641992274076</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>0.0007280976276414476</v>
+        <v>0.0007523583956691522</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>0.0007138700622458734</v>
+        <v>0.0007346267828503441</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>0.000698366050017682</v>
+        <v>0.0007159036385798661</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>0.0006813203038195811</v>
+        <v>0.0006961232406666204</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>0.0006624827001752969</v>
+        <v>0.000675228886795746</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>0.0006419692891431084</v>
+        <v>0.0006533816874859203</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>0.0006202722355354901</v>
+        <v>0.0006309664794746488</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>0.000597900856517232</v>
+        <v>0.0006083783023189104</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>0.0005753644692531258</v>
+        <v>0.0005860121955756837</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>0.0005531723909079021</v>
+        <v>0.0005642631988018872</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>0.0005318339386463529</v>
+        <v>0.0005435263515545002</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>0.0005118584296332675</v>
+        <v>0.0005241966933904982</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>0.0004937551810333807</v>
+        <v>0.0005066692638668051</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>0.0004780335100114831</v>
+        <v>0.000491339102540398</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>0.0004652027337323566</v>
+        <v>0.000478601248968246</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>0.0004557721693607493</v>
+        <v>0.0004688507427072849</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>0.0004502511340614488</v>
+        <v>0.0004624826233144904</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>0.0004490988746535973</v>
+        <v>0.0004598891353743951</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>0.0004524909906666689</v>
+        <v>0.0004614466900208257</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>0.0004605033148427425</v>
+        <v>0.0004675261293144193</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>0.0004732115696620441</v>
+        <v>0.0004784982891609128</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>0.0004906914776047804</v>
+        <v>0.0004947340054660289</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>0.0005130187611511406</v>
+        <v>0.0005166041141354718</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>0.0005402691427813766</v>
+        <v>0.0005444794510750066</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>0.0005725183449756823</v>
+        <v>0.0005787308521903428</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>0.0006098421230990345</v>
+        <v>0.0006197291855196443</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>0.0006582526001141687</v>
+        <v>0.0006736458772691512</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>0.0007462587390741021</v>
+        <v>0.0007686345215941424</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>0.0009073222356008256</v>
+        <v>0.0009376771338304705</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>0.001150631385572088</v>
+        <v>0.001189326376314696</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>0.001446715063883396</v>
+        <v>0.001493227108938157</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>0.001762652543491096</v>
+        <v>0.001815552426435016</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>0.002065523097350729</v>
+        <v>0.002122475423538606</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>0.002322405998417884</v>
+        <v>0.002380169194982318</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>0.002500785383801572</v>
+        <v>0.002555232672407105</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>0.002593959391751759</v>
+        <v>0.002641416004289736</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>0.002636138544524793</v>
+        <v>0.002675501064540026</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>0.002665160124912283</v>
+        <v>0.002698084360884762</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>0.002718861415705666</v>
+        <v>0.002749762401050581</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>0.002831150485913997</v>
+        <v>0.002866842307772886</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>0.002997787943969335</v>
+        <v>0.003043986957911387</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>0.003193082863043356</v>
+        <v>0.003252441339027721</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>0.003391105258881819</v>
+        <v>0.003463189468069162</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>0.003565925147231033</v>
+        <v>0.003647215361983566</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>0.003693209887282472</v>
+        <v>0.003777363659726733</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>0.003766595355999242</v>
+        <v>0.003847409138801547</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>0.00379103106362435</v>
+        <v>0.003864304954306106</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>0.003771642935071179</v>
+        <v>0.003835209753162566</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>0.003713556895253045</v>
+        <v>0.003767282182292988</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>0.003621904343007364</v>
+        <v>0.003667663927093787</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>0.003502067727483322</v>
+        <v>0.003542718767338094</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>0.003359779656347853</v>
+        <v>0.003397725480041613</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>0.003200798723318446</v>
+        <v>0.00323788232172839</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>0.003030883522112647</v>
+        <v>0.003068387548922521</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>0.002855792646447538</v>
+        <v>0.00289443941814764</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>0.002681284690040813</v>
+        <v>0.002721236185927992</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>0.002513047183529127</v>
+        <v>0.002553912863337103</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>0.002354286620756165</v>
+        <v>0.002395396362844273</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>0.002205140568775775</v>
+        <v>0.002245882281937716</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>0.002065556284306393</v>
+        <v>0.002105396843758882</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>0.001935481024066864</v>
+        <v>0.001973966271449625</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>0.001814862044775999</v>
+        <v>0.001851616788151771</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>0.001703646603152286</v>
+        <v>0.001738374617006817</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>0.001601781955914543</v>
+        <v>0.001634265981156594</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>0.001509215359781556</v>
+        <v>0.001539317103742902</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>0.001425894071471864</v>
+        <v>0.001453554207907288</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>0.001351765347704321</v>
+        <v>0.001377003516791623</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>0.001286776445197502</v>
+        <v>0.001309691253537487</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>0.001230874620670181</v>
+        <v>0.001251643641286672</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>0.001183971266714071</v>
+        <v>0.001202849220149103</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>0.001145004925500533</v>
+        <v>0.0011622743401972</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>0.001111851203188007</v>
+        <v>0.001127768507042824</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>0.001082331780381562</v>
+        <v>0.001097124565826432</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>0.001054268337686148</v>
+        <v>0.001068135361688359</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>0.0010254825557068</v>
+        <v>0.001038593739769024</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>0.0009937961150485509</v>
+        <v>0.001006292545208847</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>0.0009570306963163501</v>
+        <v>0.0009690246231481618</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>0.0009130097451102892</v>
+        <v>0.0009245845896730054</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>0.0008609599833532222</v>
+        <v>0.0008721750682423397</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>0.0008040327718413011</v>
+        <v>0.0008149365528400061</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>0.000746060327119416</v>
+        <v>0.0007566926886571829</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>0.0006908748657324603</v>
+        <v>0.0007012671208850515</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>0.0006423086042251773</v>
+        <v>0.0006524834947146429</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>0.0006041937591424944</v>
+        <v>0.0006141654553371718</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>0.000580362547029185</v>
+        <v>0.0005901366479436998</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>0.0005746471844301358</v>
+        <v>0.000584220717725401</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>0.0005908798878901671</v>
+        <v>0.0006002413098733838</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>0.0006328928739541514</v>
+        <v>0.0006420220695788081</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>0.0007045183591669305</v>
+        <v>0.0007133866420328039</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>0.0008095885600732401</v>
+        <v>0.0008181586724263944</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>0.0009519356932181129</v>
+        <v>0.0009601618059508998</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>0.001137613749146835</v>
+        <v>0.001145481469738712</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>0.001400477962601945</v>
+        <v>0.001408504957834588</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>0.001793303520087853</v>
+        <v>0.001802880211502999</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>0.002369228232542475</v>
+        <v>0.002382624326294604</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>0.003181389910905536</v>
+        <v>0.003201754397761886</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>0.004282926366115334</v>
+        <v>0.004314287521455887</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>0.005672248012495165</v>
+        <v>0.005718590016967154</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>0.006847471086461189</v>
+        <v>0.006904292891572445</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>0.007038590368736847</v>
+        <v>0.007088381859991944</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>0.006329260028863691</v>
+        <v>0.006354776673029225</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>0.006629922306253136</v>
+        <v>0.006644474382832158</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>0.007579511255915965</v>
+        <v>0.007594655583751056</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>0.008532187535872721</v>
+        <v>0.008553551182608506</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>0.008900202145710011</v>
+        <v>0.008927758488833691</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>0.008708164193614022</v>
+        <v>0.008739143012082978</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>0.008347783452789028</v>
+        <v>0.008378415488843195</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>0.008211991191746638</v>
+        <v>0.008237561529411061</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>0.008411899742920999</v>
+        <v>0.008428979317679998</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>0.008598963029602731</v>
+        <v>0.008608967899303597</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>0.008607071765732213</v>
+        <v>0.008613432253517884</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>0.008462122709830175</v>
+        <v>0.008467593771207921</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>0.008196025999513626</v>
+        <v>0.008202602986556727</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>0.007840691772399924</v>
+        <v>0.007849610433747673</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>0.007428030166106756</v>
+        <v>0.007439766646964456</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>0.006989951318250648</v>
+        <v>0.007004222160389619</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>0.006557176366498924</v>
+        <v>0.006572980745228362</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>0.006143372946184437</v>
+        <v>0.006159598463731096</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>0.005749448109432227</v>
+        <v>0.005765324090496705</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>0.00537600119043744</v>
+        <v>0.005391109613291019</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>0.005023631523395146</v>
+        <v>0.005037907019879794</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>0.004692938442499468</v>
+        <v>0.004706668298027838</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>0.004384521281945766</v>
+        <v>0.004398345435501191</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>0.00409897937592824</v>
+        <v>0.00411389042006474</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>0.003836916246566986</v>
+        <v>0.003854258310441444</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>0.00360012288935625</v>
+        <v>0.003621274925909198</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>0.003393204620531874</v>
+        <v>0.003418829794746835</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>0.003221174495856106</v>
+        <v>0.003251111435934133</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>0.003089045571091071</v>
+        <v>0.003122308368450748</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>0.003001304746788573</v>
+        <v>0.003036120047850158</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>0.00295359524966592</v>
+        <v>0.002988025698582007</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>0.002934219005952128</v>
+        <v>0.002966680776179762</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>0.002931255530308792</v>
+        <v>0.002960534003712682</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>0.002932784337397567</v>
+        <v>0.002958034104250094</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>0.002926884941880088</v>
+        <v>0.002947629800861296</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>0.002901636858417975</v>
+        <v>0.002917769816615579</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>0.002846488766502443</v>
+        <v>0.002858267757299248</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>0.002764838104149743</v>
+        <v>0.00277284236197625</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>0.002668227476243467</v>
+        <v>0.002673332062273565</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>0.002568301558336231</v>
+        <v>0.002571677041257484</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>0.002476705025980372</v>
+        <v>0.002479817481994014</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>0.002405025258220244</v>
+        <v>0.002409633111545126</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>0.002356049770123196</v>
+        <v>0.002363718542910624</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>0.00231436594711307</v>
+        <v>0.002325464651381672</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>0.002263131234246105</v>
+        <v>0.00227676934496212</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>0.002196948024191962</v>
+        <v>0.002211826167980274</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>0.00211879205362012</v>
+        <v>0.002133824389001773</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>0.002031830653533949</v>
+        <v>0.002046159111894515</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>0.001939231154936902</v>
+        <v>0.001952225440526487</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>0.001844160888832179</v>
+        <v>0.001855418478765417</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>0.001749787186223311</v>
+        <v>0.001759133330479369</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>0.001659259450200288</v>
+        <v>0.001666745908144552</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>0.001574514820482231</v>
+        <v>0.001580334426022092</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>0.00149552837441528</v>
+        <v>0.001499876758710577</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>0.001422096314982064</v>
+        <v>0.001425159300188279</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>0.001354014845165427</v>
+        <v>0.001355968444433696</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>0.001291080167948194</v>
+        <v>0.001292090585425298</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>0.001233088486313022</v>
+        <v>0.001233312117141392</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>0.001179836003242741</v>
+        <v>0.001179419433560456</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>0.001131118921720164</v>
+        <v>0.001130198928660951</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>0.001086733444727974</v>
+        <v>0.001085436996421207</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>0.001046475775249022</v>
+        <v>0.001044920030819725</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>0.001010142116266005</v>
+        <v>0.001008434425834851</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>0.0009775286707617338</v>
+        <v>0.0009757665754450422</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>0.000948431641719002</v>
+        <v>0.0009467028736287411</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>0.000922647232120529</v>
+        <v>0.0009210297143643158</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>0.0008999716449491125</v>
+        <v>0.0008985334916302123</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>0.0008802010831875401</v>
+        <v>0.0008790005994048664</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>0.0008631317498185469</v>
+        <v>0.0008622174316666614</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>0.0008485598478249227</v>
+        <v>0.0008479703823940356</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>0.0008362815801894481</v>
+        <v>0.0008360458455654173</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>0.0008260931498948719</v>
+        <v>0.0008262302151592045</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>0.0008177907599239832</v>
+        <v>0.0008183098851538343</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>0.0008111706132595385</v>
+        <v>0.0008120712495277111</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>0.000806028912884316</v>
+        <v>0.0008073007022592624</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>0.0008021618617810866</v>
+        <v>0.0008037846373269066</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>0.0007993656629326234</v>
+        <v>0.0008013094487090647</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>0.0007974365193216917</v>
+        <v>0.0007996615303841514</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>0.0007961955081957513</v>
+        <v>0.0007986536523108143</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>0.000795602233707916</v>
+        <v>0.0007982454745355282</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>0.0007956642400782864</v>
+        <v>0.0007984474914218751</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>0.0007963891178522902</v>
+        <v>0.0007992702464555294</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>0.0007977844575753575</v>
+        <v>0.0008007242831221685</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>0.0007998578497929168</v>
+        <v>0.0008028201449074668</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>0.000802616885050394</v>
+        <v>0.0008055683752970978</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>0.0008060691538932232</v>
+        <v>0.0008089795177767415</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>0.000810222246866831</v>
+        <v>0.0008130641158320718</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>0.0008150837545166414</v>
+        <v>0.0008178327129487589</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>0.0008206612673880922</v>
+        <v>0.0008232958526124878</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>0.0008269623760266018</v>
+        <v>0.0008294640783089234</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>0.000833994670977611</v>
+        <v>0.0008363479335237531</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>0.0008417657427865427</v>
+        <v>0.0008439579617426465</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>0.000850283181998818</v>
+        <v>0.0008523047064512715</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>0.0008595545791598812</v>
+        <v>0.0008613987111353191</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>0.0008695875248151536</v>
+        <v>0.0008712505192804572</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>0.0008803896095100541</v>
+        <v>0.0008818706743723517</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>0.0008919684237900307</v>
+        <v>0.000893269719896697</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>0.0009043315582005033</v>
+        <v>0.0009054581993391597</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>0.0009174866032868882</v>
+        <v>0.0009184466561854033</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>0.0009314411495946382</v>
+        <v>0.0009322456339211267</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>0.0009462027876691567</v>
+        <v>0.0009468656760319803</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>0.0009617791080558993</v>
+        <v>0.0009623173260036663</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>0.0009781777013002817</v>
+        <v>0.0009786111273218472</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>0.0009954061579477173</v>
+        <v>0.0009957576234721831</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>0.001013472068543666</v>
+        <v>0.00101376735794038</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>0.001032383023633541</v>
+        <v>0.001032650874212099</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>0.001052146613762753</v>
+        <v>0.001052418715772996</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>0.001072770429476766</v>
+        <v>0.001073081426108784</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>0.001094262061320992</v>
+        <v>0.00109464954870512</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>0.001116629099840841</v>
+        <v>0.00111713362704766</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>0.001139879135581779</v>
+        <v>0.001140544204622119</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>0.001164019759089195</v>
+        <v>0.00116489182491413</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>0.00118905856090856</v>
+        <v>0.001190187031409413</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>0.001215100099399926</v>
+        <v>0.001216535035493976</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>0.001242707111239837</v>
+        <v>0.001244488359647409</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>0.001272577528343014</v>
+        <v>0.001274731514982675</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>0.001305409302219762</v>
+        <v>0.001307949031743549</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>0.001341900384380271</v>
+        <v>0.00134482544017369</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>0.00138274872633486</v>
+        <v>0.001386045270516886</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>0.001428652279593748</v>
+        <v>0.001432293053016826</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>0.001480308995667136</v>
+        <v>0.001484253317917183</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>0.001538416826065371</v>
+        <v>0.001542610595461769</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>0.001603673722298659</v>
+        <v>0.001608049415894264</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>0.001676777635877182</v>
+        <v>0.001681254309458317</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>0.00175838406709739</v>
+        <v>0.001762867846186285</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>0.001848390234669294</v>
+        <v>0.001852783085017848</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>0.00194603948466144</v>
+        <v>0.00195024677512236</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>0.002050553737481672</v>
+        <v>0.002054484487823567</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>0.002161154913537472</v>
+        <v>0.002164721794444858</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>0.002277064933236706</v>
+        <v>0.002280184266310003</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>0.002397505716986949</v>
+        <v>0.002400097474742481</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>0.002521699185195754</v>
+        <v>0.002523686991065752</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>0.002648867258271015</v>
+        <v>0.002650178386603612</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>0.002778231856620289</v>
+        <v>0.002778797232679523</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>0.002909014900651128</v>
+        <v>0.002908769100616943</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>0.003040438310771434</v>
+        <v>0.003039319561739679</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>0.00317172400738876</v>
+        <v>0.003169674187371188</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>0.003302093910910658</v>
+        <v>0.003299058548834927</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>0.00343076994174503</v>
+        <v>0.003426698217454702</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>0.00355785230862006</v>
+        <v>0.003552701874390764</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>0.00368749331564133</v>
+        <v>0.003681252540861567</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>0.003825013075521237</v>
+        <v>0.003817707457580399</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>0.003975731809977723</v>
+        <v>0.003967423974864498</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>0.004144969740729136</v>
+        <v>0.004135759443031509</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>0.004338047089493432</v>
+        <v>0.004328071212398683</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>0.00456028407798848</v>
+        <v>0.004549716633283187</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>0.004817000927932759</v>
+        <v>0.004806053056002796</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>0.005113514931121456</v>
+        <v>0.005102434762595983</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>0.005454235762879301</v>
+        <v>0.005443265559414301</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>0.005841385136428441</v>
+        <v>0.005830657971359295</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>0.006276861698016339</v>
+        <v>0.006266386200577642</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>0.006762564093890276</v>
+        <v>0.006752224449215837</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>0.007300390970298875</v>
+        <v>0.00728994691942172</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>0.007892240973489463</v>
+        <v>0.00788132781334183</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>0.008540012749709181</v>
+        <v>0.008528141333122527</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>0.009245604945206942</v>
+        <v>0.00923216168091193</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>0.01001025037522704</v>
+        <v>0.009994520550111996</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>0.01082705702660771</v>
+        <v>0.01080850939647404</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>0.01168370249253189</v>
+        <v>0.01166217949409048</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>0.01256776499770869</v>
+        <v>0.0125434862291887</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>0.01346682276684962</v>
+        <v>0.01344038498799846</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>0.01436845402466382</v>
+        <v>0.01434083115674716</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>0.01526023699586041</v>
+        <v>0.01523278012166219</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>0.01612974990515093</v>
+        <v>0.01610418726897333</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>0.01696457097724447</v>
+        <v>0.01694300798490795</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>0.01775149992420846</v>
+        <v>0.01773636454346533</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>0.01846625340305351</v>
+        <v>0.01845951887342013</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>0.01907629673679312</v>
+        <v>0.01907890287705472</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>0.01954889857966521</v>
+        <v>0.01956073799486432</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>0.01985132758590603</v>
+        <v>0.01987124566734241</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>0.01995085240975238</v>
+        <v>0.01997664733498306</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>0.01981475815614662</v>
+        <v>0.01984318121358959</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0194370212667621</v>
+        <v>0.01946430352650814</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>0.01889258727835172</v>
+        <v>0.01891603726632623</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0182716975902625</v>
+        <v>0.01829000310467074</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>0.01766459359506888</v>
+        <v>0.01767782170629785</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>0.01714314381693175</v>
+        <v>0.01715247470962072</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>0.01670730043795298</v>
+        <v>0.01671398559736566</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>0.01633942193358636</v>
+        <v>0.01634452927498168</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>0.01602186677928422</v>
+        <v>0.01602628064791632</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>0.01573699345049985</v>
+        <v>0.0157414146216181</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>0.01546716042268625</v>
+        <v>0.01547210610153523</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>0.01519472617129662</v>
+        <v>0.0152005299931161</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>0.01490204917178345</v>
+        <v>0.01490886120180844</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>0.01457148789960028</v>
+        <v>0.01457927463306099</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>0.01418848410461108</v>
+        <v>0.01419705137256711</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>0.01375623335911269</v>
+        <v>0.0137653582226855</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>0.01328427280424572</v>
+        <v>0.01329375066652139</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>0.01278214749567259</v>
+        <v>0.0127917921604993</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>0.01225940248905696</v>
+        <v>0.01226904616104498</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>0.01172558284006258</v>
+        <v>0.01173507612458428</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>0.01119023360435173</v>
+        <v>0.01119944550754157</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>0.01066289983758817</v>
+        <v>0.01067171776634269</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>0.01015307919435616</v>
+        <v>0.01016140899445864</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>0.009665673368011649</v>
+        <v>0.009673443020656458</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>0.009197213407154015</v>
+        <v>0.009204379761443084</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>0.008743341858254138</v>
+        <v>0.008749891345817825</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>0.008299701267784164</v>
+        <v>0.008305649902781249</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>0.007861934182216203</v>
+        <v>0.007867327561333889</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>0.00742568314802119</v>
+        <v>0.007430596450475107</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>0.006986590711671236</v>
+        <v>0.006991128699205437</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>0.006540299419638467</v>
+        <v>0.006544596436525431</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>0.006082691321133808</v>
+        <v>0.006086909347755074</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>0.005615327233121288</v>
+        <v>0.005619609735082048</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>0.005145542939554703</v>
+        <v>0.005149967934994981</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>0.0046809329686761</v>
+        <v>0.00468551092547687</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>0.004229091848729193</v>
+        <v>0.004233765684512387</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>0.003797614107956059</v>
+        <v>0.003802259190084561</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>0.00339409427460001</v>
+        <v>0.003398518420177659</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>0.00302612687690425</v>
+        <v>0.00303007035277584</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>0.002701306443111012</v>
+        <v>0.002704441965862289</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>0.002426719559783333</v>
+        <v>0.002428691103630887</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>0.002207258906593075</v>
+        <v>0.002207849322818558</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>0.002047224968115026</v>
+        <v>0.002046401230106052</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>0.001950977992697175</v>
+        <v>0.001948892081121909</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>0.001926736401276976</v>
+        <v>0.001923782394218546</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>0.001985612144564747</v>
+        <v>0.00198246247221753</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>0.002118480596519244</v>
+        <v>0.002115744614353775</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>0.002308028542890209</v>
+        <v>0.002306114823350686</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>0.002536922969379283</v>
+        <v>0.002536038968904193</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>0.002787700191148958</v>
+        <v>0.002787855722360746</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>0.003039877549504372</v>
+        <v>0.003040965001662304</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>0.003269945864061226</v>
+        <v>0.003271820624075977</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>0.003454263774325609</v>
+        <v>0.003456747739061349</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>0.003569189919804321</v>
+        <v>0.003572071496078715</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>0.003591101095573678</v>
+        <v>0.00359413517522699</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>0.003515243761754687</v>
+        <v>0.003518125810165139</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>0.00339141755428672</v>
+        <v>0.003393708698930721</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>0.003279223046107965</v>
+        <v>0.003280336618089711</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>0.003235065245849386</v>
+        <v>0.003234290946527411</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>0.003255393890096546</v>
+        <v>0.003252351206045824</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>0.003283382579410384</v>
+        <v>0.003278423686059871</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>0.003260351021601187</v>
+        <v>0.003254574803397231</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>0.003140884376447189</v>
+        <v>0.003135933459466046</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>0.002935722890076404</v>
+        <v>0.002932924443920983</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>0.002670463454094338</v>
+        <v>0.00267060187852963</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>0.00237070305467664</v>
+        <v>0.002374019978182759</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>0.002062038677999084</v>
+        <v>0.002068232957771268</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>0.001770065598887003</v>
+        <v>0.001778293366240526</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>0.001514242977391906</v>
+        <v>0.001523280438942435</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>0.001294106799855758</v>
+        <v>0.001302878831966416</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>0.001105156567724996</v>
+        <v>0.001112843811065304</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>0.0009428917824466656</v>
+        <v>0.00094893064199254</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>0.0008028119454677156</v>
+        <v>0.0008068945905014736</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>0.0006804165582347277</v>
+        <v>0.00068249092234508</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>0.000571205230887869</v>
+        <v>0.0005714750118627518</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>0.0004757443572496187</v>
+        <v>0.0004746637649402596</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>0.0004058536881809639</v>
+        <v>0.0004040185557682909</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>0.0003590523574773086</v>
+        <v>0.000356969395426734</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>0.0003299977723156534</v>
+        <v>0.0003280496915277971</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>0.0003133473398729318</v>
+        <v>0.0003117928516836212</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>0.0003037584673261655</v>
+        <v>0.0003027322835064353</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>0.0002966249636075241</v>
+        <v>0.0002961538898944246</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>0.0002908320696454165</v>
+        <v>0.0002909113084775721</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>0.0002862987172844486</v>
+        <v>0.000286914458373695</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>0.0002829439970508525</v>
+        <v>0.0002840734208501114</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>0.000280686999470873</v>
+        <v>0.0002822982771741513</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>0.0002794468150707511</v>
+        <v>0.0002814991086131401</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>0.0002791425343767249</v>
+        <v>0.0002815859964344021</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>0.0002796932479150363</v>
+        <v>0.0002824690219052638</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>0.0002810180462119241</v>
+        <v>0.0002840582662930491</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>0.0002830360197936309</v>
+        <v>0.0002862638108650863</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>0.0002856662591863938</v>
+        <v>0.0002889957368886972</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>0.0002888278665597244</v>
+        <v>0.0002921641692291305</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>0.0002924421814709464</v>
+        <v>0.000295687610593786</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>0.0002964354264543682</v>
+        <v>0.0002995028478740187</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>0.0003007344681839511</v>
+        <v>0.0003035490799258087</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>0.0003052661733336459</v>
+        <v>0.0003077655056051262</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>0.0003099574085774027</v>
+        <v>0.000312091323767941</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>0.0003147350405891839</v>
+        <v>0.0003164657332702342</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>0.0003195259360429397</v>
+        <v>0.0003208279329679756</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>0.00032425696161262</v>
+        <v>0.0003251171217171347</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>0.0003288549839721874</v>
+        <v>0.0003292724983736929</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>0.0003332468697955883</v>
+        <v>0.0003332332617936164</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>0.0003373594857567847</v>
+        <v>0.0003369386108328858</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>0.0003411196985297265</v>
+        <v>0.0003403277443474708</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>0.0003444543747883655</v>
+        <v>0.0003433398611933425</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>0.0003472903812066616</v>
+        <v>0.0003459141602264799</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>0.0003495545844585659</v>
+        <v>0.0003479898403028534</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>0.0003511738512180314</v>
+        <v>0.0003495061002784356</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>0.0003520750481590155</v>
+        <v>0.0003504021390092028</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>0.0003521850419554702</v>
+        <v>0.0003506171553511267</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>0.0003515082759664466</v>
+        <v>0.0003501620838675134</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>0.0003504070097135335</v>
+        <v>0.000349378734248426</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>0.0003493465981385112</v>
+        <v>0.000348704249245413</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>0.0003487924057558774</v>
+        <v>0.0003485757804619828</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>0.0003492097970801328</v>
+        <v>0.0003494304795016463</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>0.0003510641366257772</v>
+        <v>0.0003517054979679131</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>0.000354820788907306</v>
+        <v>0.0003558379874642888</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>0.0003609451184392253</v>
+        <v>0.0003622650995942903</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>0.0003699024897360231</v>
+        <v>0.0003714239859614152</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>0.0003821582673122147</v>
+        <v>0.0003837517981691895</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>0.0003981778156822935</v>
+        <v>0.0003996856878211164</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>0.0004184264993607387</v>
+        <v>0.0004196628065206857</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>0.0004433696828620862</v>
+        <v>0.0004441203058714432</v>
       </c>
     </row>
   </sheetData>
